--- a/IP2-Music project plan.xlsx
+++ b/IP2-Music project plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="Relaxed song" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Sad song" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="test" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="happy" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="190">
   <si>
     <t xml:space="preserve">TODO</t>
   </si>
@@ -1030,9 +1031,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="49" min="2" style="0" width="2.83673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="49" min="2" style="0" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,18 +1928,18 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.05612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,6 +1985,483 @@
       <c r="C4" s="8"/>
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.7602040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2009,8 +2487,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,7 +2636,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,9 +2718,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,9 +3147,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,17 +3277,17 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,11 +4338,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,10 +4812,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,11 +5232,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
